--- a/Contenido/Ordenes XNF.xlsx
+++ b/Contenido/Ordenes XNF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df7dd1d659b9951f/Documentos/UPA/2025-2/Materias/2025-2-ISC05-DB/Contenido/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7DCF1A87-3D70-4663-B644-EB765DF227F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58302576-F247-4EF8-B37F-4A569CB16A2D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7DCF1A87-3D70-4663-B644-EB765DF227F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35EF01EB-77C1-4583-A3F4-97B74412D623}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2713B924-2D8B-453C-BA89-28119DA56988}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
   <si>
     <t>ID_ORDEN</t>
   </si>
@@ -120,7 +120,40 @@
     <t xml:space="preserve">MARTIN </t>
   </si>
   <si>
-    <t>ESTADO_CTE</t>
+    <t>ciudad_CTE</t>
+  </si>
+  <si>
+    <t>1FN</t>
+  </si>
+  <si>
+    <t>idcliente</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>Telefonos</t>
+  </si>
+  <si>
+    <t>650 110 10 20</t>
+  </si>
+  <si>
+    <t>650 110 10 21</t>
+  </si>
+  <si>
+    <t>3FN</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>codigo_Postal</t>
+  </si>
+  <si>
+    <t>CLIENTES</t>
   </si>
 </sst>
 </file>
@@ -162,7 +195,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +211,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -267,17 +318,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,18 +660,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF090CA-0985-443A-9897-AEDFB36F5A95}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.36328125" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.26953125" customWidth="1"/>
     <col min="7" max="7" width="13.90625" customWidth="1"/>
@@ -618,40 +685,40 @@
   <sheetData>
     <row r="1" spans="1:15" ht="26" x14ac:dyDescent="0.35">
       <c r="A1" s="8"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -668,10 +735,10 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="16" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -707,10 +774,10 @@
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="16" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -746,10 +813,10 @@
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -785,10 +852,10 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="9"/>
+      <c r="G5" s="16"/>
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
@@ -822,8 +889,8 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -859,8 +926,8 @@
       <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11" t="s">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -902,8 +969,8 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -911,6 +978,156 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
+        <v>101</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1">
+        <v>101</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>101</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="19">
+        <v>101</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="19">
+        <v>20150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="1">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="19">
+        <v>101</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="19">
+        <v>20150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1">
+        <v>107</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1">
+        <v>23450</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="13">
+        <v>110</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="4">
+        <v>110</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="4">
+        <v>28130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E18" s="20">
+        <v>110</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="20">
+        <v>28130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Contenido/Ordenes XNF.xlsx
+++ b/Contenido/Ordenes XNF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df7dd1d659b9951f/Documentos/UPA/2025-2/Materias/2025-2-ISC05-DB/Contenido/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7DCF1A87-3D70-4663-B644-EB765DF227F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35EF01EB-77C1-4583-A3F4-97B74412D623}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{7DCF1A87-3D70-4663-B644-EB765DF227F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85884449-EFCE-4A0B-BC91-A8A2DB5D87F8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2713B924-2D8B-453C-BA89-28119DA56988}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>ID_ORDEN</t>
   </si>
@@ -139,21 +139,6 @@
   </si>
   <si>
     <t>650 110 10 21</t>
-  </si>
-  <si>
-    <t>3FN</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>ciudad</t>
-  </si>
-  <si>
-    <t>codigo_Postal</t>
-  </si>
-  <si>
-    <t>CLIENTES</t>
   </si>
 </sst>
 </file>
@@ -195,7 +180,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,12 +208,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEE0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -324,9 +303,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -340,12 +316,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF090CA-0985-443A-9897-AEDFB36F5A95}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,10 +671,10 @@
       <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="12" t="s">
@@ -735,10 +709,10 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -774,10 +748,10 @@
       <c r="E3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -813,10 +787,10 @@
       <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -852,10 +826,10 @@
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="1" t="s">
         <v>16</v>
       </c>
@@ -889,8 +863,8 @@
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="16" t="s">
         <v>27</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -926,8 +900,8 @@
       <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="7" t="s">
@@ -982,37 +956,31 @@
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>38</v>
-      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>42</v>
-      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
@@ -1021,18 +989,10 @@
       <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1">
-        <v>101</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="1">
-        <v>20150</v>
-      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14">
@@ -1041,18 +1001,10 @@
       <c r="C14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="19">
-        <v>101</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="19">
-        <v>20150</v>
-      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
@@ -1061,18 +1013,10 @@
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="19">
-        <v>101</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="19">
-        <v>20150</v>
-      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16">
@@ -1081,52 +1025,52 @@
       <c r="C16" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1">
-        <v>107</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="1">
-        <v>23450</v>
-      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="13">
+      <c r="B17" s="2">
         <v>110</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="4">
-        <v>110</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="4">
-        <v>28130</v>
-      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E18" s="20">
-        <v>110</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="20">
-        <v>28130</v>
-      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Contenido/Ordenes XNF.xlsx
+++ b/Contenido/Ordenes XNF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df7dd1d659b9951f/Documentos/UPA/2025-2/Materias/2025-2-ISC05-DB/Contenido/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{7DCF1A87-3D70-4663-B644-EB765DF227F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85884449-EFCE-4A0B-BC91-A8A2DB5D87F8}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7DCF1A87-3D70-4663-B644-EB765DF227F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DCF8268-C903-4F45-B004-01230F7E5B2C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2713B924-2D8B-453C-BA89-28119DA56988}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>ID_ORDEN</t>
   </si>
@@ -93,9 +93,6 @@
     <t>FUNDA</t>
   </si>
   <si>
-    <t>Codigo Postal</t>
-  </si>
-  <si>
     <t>Telefono</t>
   </si>
   <si>
@@ -139,6 +136,33 @@
   </si>
   <si>
     <t>650 110 10 21</t>
+  </si>
+  <si>
+    <t>3FN</t>
+  </si>
+  <si>
+    <t>id_cliente</t>
+  </si>
+  <si>
+    <t>CLIENTES</t>
+  </si>
+  <si>
+    <t>PRODUCTOS</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>2FN</t>
+  </si>
+  <si>
+    <t>ORDENES</t>
+  </si>
+  <si>
+    <t>DETALLE_ORDEN</t>
+  </si>
+  <si>
+    <t>CODIGO_POSTAL</t>
   </si>
 </sst>
 </file>
@@ -180,7 +204,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +232,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -275,17 +317,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -296,9 +329,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -316,10 +346,61 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF090CA-0985-443A-9897-AEDFB36F5A95}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -658,419 +739,661 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="8"/>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="29">
+        <v>2301</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="25">
+        <v>101</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="G2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="19">
+        <v>20150</v>
+      </c>
+      <c r="J2" s="29">
+        <v>3786</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="29">
+        <v>3</v>
+      </c>
+      <c r="M2" s="19">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B3" s="29">
+        <v>2301</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="25">
+        <v>101</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="19">
+        <v>20150</v>
+      </c>
+      <c r="J3" s="29">
+        <v>4011</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="29">
+        <v>6</v>
+      </c>
+      <c r="M3" s="19">
+        <v>65</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="29">
+        <v>2301</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="25">
+        <v>101</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="19">
+        <v>20150</v>
+      </c>
+      <c r="J4" s="29">
+        <v>9132</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="29">
+        <v>8</v>
+      </c>
+      <c r="M4" s="19">
+        <v>4.75</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="25" x14ac:dyDescent="0.35">
+      <c r="B5" s="29">
+        <v>2302</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="25">
+        <v>107</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="19">
+        <v>23450</v>
+      </c>
+      <c r="J5" s="29">
+        <v>5794</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="29">
+        <v>4</v>
+      </c>
+      <c r="M5" s="19">
+        <v>5</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="30">
+        <v>2303</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="26">
+        <v>110</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="20">
+        <v>28130</v>
+      </c>
+      <c r="J6" s="30">
+        <v>4011</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="30">
+        <v>2</v>
+      </c>
+      <c r="M6" s="20">
+        <v>65</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="31">
+        <v>2303</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="27">
+        <v>110</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="21">
+        <v>28130</v>
+      </c>
+      <c r="J7" s="31">
+        <v>3141</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="31">
+        <v>2</v>
+      </c>
+      <c r="M7" s="21">
+        <v>10</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="1">
-        <v>2301</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1">
-        <v>101</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1">
-        <v>20150</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3786</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="1">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="1">
-        <v>2301</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>101</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1">
-        <v>20150</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4011</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1">
-        <v>6</v>
-      </c>
-      <c r="M3" s="1">
-        <v>65</v>
-      </c>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="1">
-        <v>2301</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>101</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1">
-        <v>20150</v>
-      </c>
-      <c r="J4" s="1">
-        <v>9132</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="1">
-        <v>8</v>
-      </c>
-      <c r="M4" s="1">
-        <v>4.75</v>
-      </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" ht="25" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
-        <v>2302</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
-        <v>107</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1">
-        <v>23450</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5794</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="1">
-        <v>4</v>
-      </c>
-      <c r="M5" s="1">
-        <v>5</v>
-      </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="4">
-        <v>2303</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4">
-        <v>110</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="4">
-        <v>28130</v>
-      </c>
-      <c r="J6" s="4">
-        <v>4011</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2</v>
-      </c>
-      <c r="M6" s="4">
-        <v>65</v>
-      </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="7">
-        <v>2303</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7">
-        <v>110</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="7">
-        <v>28130</v>
-      </c>
-      <c r="J7" s="7">
-        <v>3141</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="7">
-        <v>2</v>
-      </c>
-      <c r="M7" s="7">
-        <v>10</v>
-      </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="26" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+      <c r="C11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <v>101</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2">
+        <v>20150</v>
+      </c>
+      <c r="J12">
+        <v>3786</v>
+      </c>
+      <c r="K12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12">
         <v>35</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B13" s="1">
+      <c r="B13">
         <v>101</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="E13" s="17">
+        <v>101</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="17">
+        <v>20150</v>
+      </c>
+      <c r="J13">
+        <v>4011</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B14">
+      <c r="B14" s="1">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="17">
         <v>101</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="F14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="17">
+        <v>20150</v>
+      </c>
+      <c r="J14">
+        <v>9132</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>4.75</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B15" s="1">
+      <c r="B15">
         <v>107</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="E15" s="2">
+        <v>107</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="2">
+        <v>23450</v>
+      </c>
+      <c r="J15">
+        <v>5794</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B16">
+      <c r="B16" s="2">
+        <v>110</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2">
+        <v>110</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="2">
+        <v>28130</v>
+      </c>
+      <c r="J16" s="23">
+        <v>4011</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="23">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="E17" s="17">
+        <v>110</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="17">
+        <v>28130</v>
+      </c>
+      <c r="J17">
+        <v>3141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>2301</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>101</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2301</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3786</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="23">
+        <v>2301</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="23">
+        <v>101</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2301</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4011</v>
+      </c>
+      <c r="H23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="23">
+        <v>2301</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="23">
+        <v>101</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2301</v>
+      </c>
+      <c r="G24" s="1">
+        <v>9132</v>
+      </c>
+      <c r="H24" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>2302</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25">
         <v>107</v>
       </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="2">
+      <c r="F25" s="1">
+        <v>2302</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5794</v>
+      </c>
+      <c r="H25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>2303</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
         <v>110</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="F26" s="3">
+        <v>2303</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4011</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="23">
+        <v>2303</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="23">
+        <v>110</v>
+      </c>
+      <c r="F27" s="4">
+        <v>2303</v>
+      </c>
+      <c r="G27" s="4">
+        <v>3141</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Contenido/Ordenes XNF.xlsx
+++ b/Contenido/Ordenes XNF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df7dd1d659b9951f/Documentos/UPA/2025-2/Materias/2025-2-ISC05-DB/Contenido/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{7DCF1A87-3D70-4663-B644-EB765DF227F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DCF8268-C903-4F45-B004-01230F7E5B2C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{7DCF1A87-3D70-4663-B644-EB765DF227F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8C60C65-4027-46EE-86DC-CAB0917B70E1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2713B924-2D8B-453C-BA89-28119DA56988}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
   <si>
     <t>ID_ORDEN</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>CODIGO_POSTAL</t>
+  </si>
+  <si>
+    <t>codigo_postal</t>
   </si>
 </sst>
 </file>
@@ -204,7 +207,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,19 +222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,12 +235,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -323,7 +308,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -333,7 +317,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -346,60 +355,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF090CA-0985-443A-9897-AEDFB36F5A95}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="B1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,289 +698,288 @@
     <col min="13" max="13" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="26" x14ac:dyDescent="0.35">
-      <c r="A1" s="5"/>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="2:15" ht="26" x14ac:dyDescent="0.35">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="28" t="s">
+      <c r="I1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="29">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="1">
         <v>2301</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="14">
         <v>101</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="14">
         <v>20150</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="1">
         <v>3786</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="1">
         <v>3</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="14">
         <v>35</v>
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="29">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
         <v>2301</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="14">
         <v>101</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="14">
         <v>20150</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="1">
         <v>4011</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="1">
         <v>6</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="14">
         <v>65</v>
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="29">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
         <v>2301</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="14">
         <v>101</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="14">
         <v>20150</v>
       </c>
-      <c r="J4" s="29">
+      <c r="J4" s="1">
         <v>9132</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="1">
         <v>8</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="14">
         <v>4.75</v>
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="25" x14ac:dyDescent="0.35">
-      <c r="B5" s="29">
+    <row r="5" spans="2:15" ht="25" x14ac:dyDescent="0.35">
+      <c r="B5" s="1">
         <v>2302</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="14">
         <v>107</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="14">
         <v>23450</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="1">
         <v>5794</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="1">
         <v>4</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="14">
         <v>5</v>
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B6" s="30">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="3">
         <v>2303</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="15">
         <v>110</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="15">
         <v>28130</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="3">
         <v>4011</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="3">
         <v>2</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="15">
         <v>65</v>
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B7" s="31">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="4">
         <v>2303</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="16">
         <v>110</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="21"/>
+      <c r="G7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="16">
         <v>28130</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="4">
         <v>3141</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="4">
         <v>2</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="16">
         <v>10</v>
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="23"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>31</v>
       </c>
@@ -1031,7 +990,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -1042,26 +1001,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="26" x14ac:dyDescent="0.35">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="2:15" ht="26" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>4</v>
       </c>
       <c r="K11" t="s">
@@ -1071,11 +1030,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>101</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="2">
@@ -1100,23 +1059,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>101</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="10">
         <v>101</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="10">
         <v>20150</v>
       </c>
       <c r="J13">
@@ -1129,23 +1088,23 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>107</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="10">
         <v>101</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="10">
         <v>20150</v>
       </c>
       <c r="J14">
@@ -1158,7 +1117,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>107</v>
       </c>
@@ -1187,11 +1146,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <v>110</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="2">
@@ -1206,27 +1165,27 @@
       <c r="H16" s="2">
         <v>28130</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="12">
         <v>4011</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="12">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="E17" s="17">
+      <c r="E17" s="10">
         <v>110</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="10">
         <v>28130</v>
       </c>
       <c r="J17">
@@ -1256,7 +1215,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C21" t="s">
@@ -1265,13 +1224,13 @@
       <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1296,13 +1255,13 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="23">
+      <c r="B23" s="12">
         <v>2301</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="12">
         <v>101</v>
       </c>
       <c r="F23" s="1">
@@ -1316,13 +1275,13 @@
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="23">
+      <c r="B24" s="12">
         <v>2301</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="12">
         <v>101</v>
       </c>
       <c r="F24" s="1">
@@ -1376,13 +1335,13 @@
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="23">
+      <c r="B27" s="12">
         <v>2303</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="12">
         <v>110</v>
       </c>
       <c r="F27" s="4">
